--- a/Code/Results/Cases/Case_8_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7971792420710244</v>
+        <v>0.7698653115453169</v>
       </c>
       <c r="C2">
-        <v>0.1537010245020838</v>
+        <v>0.2031564654656961</v>
       </c>
       <c r="D2">
-        <v>0.008932554484331945</v>
+        <v>0.001110950438797609</v>
       </c>
       <c r="E2">
-        <v>0.007667636553386981</v>
+        <v>0.01539013941871659</v>
       </c>
       <c r="F2">
-        <v>3.262198631094535</v>
+        <v>2.223629589816142</v>
       </c>
       <c r="G2">
-        <v>0.0008723139900897872</v>
+        <v>0.102709300998117</v>
       </c>
       <c r="H2">
-        <v>0.06187279006497937</v>
+        <v>0.03555397410109773</v>
       </c>
       <c r="I2">
-        <v>0.07631381080492439</v>
+        <v>0.03880070383370438</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.153941032549511</v>
+        <v>1.362256645366074</v>
       </c>
       <c r="L2">
-        <v>0.04924444762131586</v>
+        <v>0.5100510729983867</v>
       </c>
       <c r="M2">
-        <v>0.9109939338391655</v>
+        <v>0.5085825768012384</v>
       </c>
       <c r="N2">
-        <v>0.1199812853277322</v>
+        <v>0.04751358999660482</v>
       </c>
       <c r="O2">
-        <v>0.1725659814193712</v>
+        <v>0.9519461566148095</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1626905141507109</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1810935362231163</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6977083245540996</v>
+        <v>0.6713979738809712</v>
       </c>
       <c r="C3">
-        <v>0.1341628851387355</v>
+        <v>0.1752876947043376</v>
       </c>
       <c r="D3">
-        <v>0.008785690221969844</v>
+        <v>0.0008731546401179457</v>
       </c>
       <c r="E3">
-        <v>0.0067108699355094</v>
+        <v>0.01444082883997133</v>
       </c>
       <c r="F3">
-        <v>3.044002237016869</v>
+        <v>2.099143714746106</v>
       </c>
       <c r="G3">
-        <v>0.0008768815465237687</v>
+        <v>0.1149042452930393</v>
       </c>
       <c r="H3">
-        <v>0.07086637309259913</v>
+        <v>0.04105748369931028</v>
       </c>
       <c r="I3">
-        <v>0.0868625786414432</v>
+        <v>0.0444975283479434</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.019145413221992</v>
+        <v>1.299063076855518</v>
       </c>
       <c r="L3">
-        <v>0.04456786742762908</v>
+        <v>0.4957060440886991</v>
       </c>
       <c r="M3">
-        <v>0.7973023867976963</v>
+        <v>0.4778135933701577</v>
       </c>
       <c r="N3">
-        <v>0.1069984916413276</v>
+        <v>0.04474979944406243</v>
       </c>
       <c r="O3">
-        <v>0.1518499289368833</v>
+        <v>0.8281385421597349</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1460784295005482</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1587000985392422</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6368152679520165</v>
+        <v>0.6108626717163474</v>
       </c>
       <c r="C4">
-        <v>0.1224993546638871</v>
+        <v>0.1584223538032319</v>
       </c>
       <c r="D4">
-        <v>0.008671901659739412</v>
+        <v>0.0007409705934495747</v>
       </c>
       <c r="E4">
-        <v>0.006136783539794077</v>
+        <v>0.01385785678947205</v>
       </c>
       <c r="F4">
-        <v>2.909224061107125</v>
+        <v>2.021636376655266</v>
       </c>
       <c r="G4">
-        <v>0.0008797829968175177</v>
+        <v>0.1230008572076873</v>
       </c>
       <c r="H4">
-        <v>0.07689130867347505</v>
+        <v>0.04476304747220894</v>
       </c>
       <c r="I4">
-        <v>0.09394666635862858</v>
+        <v>0.0483639400196334</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.935443541256376</v>
+        <v>1.259289779791906</v>
       </c>
       <c r="L4">
-        <v>0.04167857297863975</v>
+        <v>0.486173383996551</v>
       </c>
       <c r="M4">
-        <v>0.7280376045373771</v>
+        <v>0.4594617837772574</v>
       </c>
       <c r="N4">
-        <v>0.09909528014600255</v>
+        <v>0.04301522016484327</v>
       </c>
       <c r="O4">
-        <v>0.1391904949432856</v>
+        <v>0.7523142633807538</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1359687000122491</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1449846180991337</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6118926345618263</v>
+        <v>0.5860410265621852</v>
       </c>
       <c r="C5">
-        <v>0.1180403450842391</v>
+        <v>0.1518090820355695</v>
       </c>
       <c r="D5">
-        <v>0.008575714403413315</v>
+        <v>0.0007090906872049274</v>
       </c>
       <c r="E5">
-        <v>0.005906275928306837</v>
+        <v>0.01362086102559079</v>
       </c>
       <c r="F5">
-        <v>2.8496224674319</v>
+        <v>1.986736151800855</v>
       </c>
       <c r="G5">
-        <v>0.0008810009942774687</v>
+        <v>0.1264783558362179</v>
       </c>
       <c r="H5">
-        <v>0.07949292932413421</v>
+        <v>0.04636634683521867</v>
       </c>
       <c r="I5">
-        <v>0.0971214054284788</v>
+        <v>0.05015920557335196</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.897658461953668</v>
+        <v>1.240625386282773</v>
       </c>
       <c r="L5">
-        <v>0.04042224366936509</v>
+        <v>0.4812039885602317</v>
       </c>
       <c r="M5">
-        <v>0.7001091512527466</v>
+        <v>0.4513713349400632</v>
       </c>
       <c r="N5">
-        <v>0.09601422228600143</v>
+        <v>0.04225407250576296</v>
       </c>
       <c r="O5">
-        <v>0.1340855380083816</v>
+        <v>0.7215921771240517</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1319847428427323</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1394367796071876</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6075774932943148</v>
+        <v>0.5817591131986148</v>
       </c>
       <c r="C6">
-        <v>0.1175700391165293</v>
+        <v>0.1509625090014168</v>
       </c>
       <c r="D6">
-        <v>0.008506237268744776</v>
+        <v>0.0007272643761595532</v>
       </c>
       <c r="E6">
-        <v>0.005868949561506742</v>
+        <v>0.01358254752458521</v>
       </c>
       <c r="F6">
-        <v>2.834259098392565</v>
+        <v>1.977209552990303</v>
       </c>
       <c r="G6">
-        <v>0.0008812180005991022</v>
+        <v>0.1271002159990462</v>
       </c>
       <c r="H6">
-        <v>0.07996122924898152</v>
+        <v>0.04665389008039345</v>
       </c>
       <c r="I6">
-        <v>0.09783512081680978</v>
+        <v>0.05062967648433325</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.887174085872317</v>
+        <v>1.234811633087638</v>
       </c>
       <c r="L6">
-        <v>0.04012406157925241</v>
+        <v>0.4792672747330897</v>
       </c>
       <c r="M6">
-        <v>0.6956930726563115</v>
+        <v>0.4491226926741234</v>
       </c>
       <c r="N6">
-        <v>0.0956556532121553</v>
+        <v>0.04207317704812574</v>
       </c>
       <c r="O6">
-        <v>0.1332883209621585</v>
+        <v>0.7166605350342934</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1314651143335297</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1385576755178555</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6359856585708314</v>
+        <v>0.6111758927227697</v>
       </c>
       <c r="C7">
-        <v>0.1231649465273819</v>
+        <v>0.1569356351088089</v>
       </c>
       <c r="D7">
-        <v>0.008524628020150082</v>
+        <v>0.0009614975715450669</v>
       </c>
       <c r="E7">
-        <v>0.006135792738194645</v>
+        <v>0.01393133556120763</v>
       </c>
       <c r="F7">
-        <v>2.893512700315014</v>
+        <v>1.99335196669989</v>
       </c>
       <c r="G7">
-        <v>0.0008798351283188857</v>
+        <v>0.1240078476903048</v>
       </c>
       <c r="H7">
-        <v>0.07700264499255738</v>
+        <v>0.04490132240096889</v>
       </c>
       <c r="I7">
-        <v>0.09445215050029443</v>
+        <v>0.0489108372315723</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.923461947158884</v>
+        <v>1.240274869144685</v>
       </c>
       <c r="L7">
-        <v>0.0414168539302775</v>
+        <v>0.4785531026818859</v>
       </c>
       <c r="M7">
-        <v>0.7282432556757215</v>
+        <v>0.4529066909593666</v>
       </c>
       <c r="N7">
-        <v>0.09946995536895287</v>
+        <v>0.04271947320066083</v>
       </c>
       <c r="O7">
-        <v>0.139257183832413</v>
+        <v>0.7506991295034595</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.136213092498302</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1451707472193959</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7621636075816411</v>
+        <v>0.738951018184423</v>
       </c>
       <c r="C8">
-        <v>0.1478559982669623</v>
+        <v>0.1874334203558021</v>
       </c>
       <c r="D8">
-        <v>0.008693273692005121</v>
+        <v>0.001721251754320363</v>
       </c>
       <c r="E8">
-        <v>0.007337208840954901</v>
+        <v>0.01531683405570838</v>
       </c>
       <c r="F8">
-        <v>3.167361221765702</v>
+        <v>2.10961374331356</v>
       </c>
       <c r="G8">
-        <v>0.0008739146922832653</v>
+        <v>0.1102605916291939</v>
       </c>
       <c r="H8">
-        <v>0.06495746590002671</v>
+        <v>0.03764591499457071</v>
       </c>
       <c r="I8">
-        <v>0.08037554403352409</v>
+        <v>0.04146856266668397</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.092441322464097</v>
+        <v>1.293787699034773</v>
       </c>
       <c r="L8">
-        <v>0.04730631286905229</v>
+        <v>0.4870722090311759</v>
       </c>
       <c r="M8">
-        <v>0.8724298043829322</v>
+        <v>0.4810528162751524</v>
       </c>
       <c r="N8">
-        <v>0.1160445866335067</v>
+        <v>0.04592295799272428</v>
       </c>
       <c r="O8">
-        <v>0.1655879813160475</v>
+        <v>0.9042044046018702</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1571655016083113</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.174001968155288</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.012371541841901</v>
+        <v>0.9859785464128947</v>
       </c>
       <c r="C9">
-        <v>0.1979198205047936</v>
+        <v>0.2556545668708736</v>
       </c>
       <c r="D9">
-        <v>0.009095028395087468</v>
+        <v>0.002544818704013352</v>
       </c>
       <c r="E9">
-        <v>0.009823246397348662</v>
+        <v>0.01776477195504089</v>
       </c>
       <c r="F9">
-        <v>3.725421159927777</v>
+        <v>2.410791326119067</v>
       </c>
       <c r="G9">
-        <v>0.000862994404669553</v>
+        <v>0.08359515489257685</v>
       </c>
       <c r="H9">
-        <v>0.04538961127343022</v>
+        <v>0.02578384274078083</v>
       </c>
       <c r="I9">
-        <v>0.05709155231147989</v>
+        <v>0.0289233434775884</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.437264191547172</v>
+        <v>1.444930405587826</v>
       </c>
       <c r="L9">
-        <v>0.05922456402647214</v>
+        <v>0.5195493627251508</v>
       </c>
       <c r="M9">
-        <v>1.159147454800973</v>
+        <v>0.5592549596256688</v>
       </c>
       <c r="N9">
-        <v>0.1484200530791071</v>
+        <v>0.0526870599200695</v>
       </c>
       <c r="O9">
-        <v>0.217553483774271</v>
+        <v>1.212360938943505</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1986587349662869</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2301366088991834</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.198748862048546</v>
+        <v>1.17540424454765</v>
       </c>
       <c r="C10">
-        <v>0.2372577469921282</v>
+        <v>0.2942198404600163</v>
       </c>
       <c r="D10">
-        <v>0.008852480567613341</v>
+        <v>0.004865537386914198</v>
       </c>
       <c r="E10">
-        <v>0.01130466769046556</v>
+        <v>0.01950232427996301</v>
       </c>
       <c r="F10">
-        <v>4.049965307975356</v>
+        <v>2.478706057998068</v>
       </c>
       <c r="G10">
-        <v>0.0008555962996030579</v>
+        <v>0.07707121104751558</v>
       </c>
       <c r="H10">
-        <v>0.0345518144245327</v>
+        <v>0.01964205987597634</v>
       </c>
       <c r="I10">
-        <v>0.04389411903134732</v>
+        <v>0.02238462874779934</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.628760461354631</v>
+        <v>1.457407673598198</v>
       </c>
       <c r="L10">
-        <v>0.06522590663570327</v>
+        <v>0.5066606173527646</v>
       </c>
       <c r="M10">
-        <v>1.374964231815198</v>
+        <v>0.5824550189312987</v>
       </c>
       <c r="N10">
-        <v>0.1670744585226913</v>
+        <v>0.05531057508385118</v>
       </c>
       <c r="O10">
-        <v>0.2536060924267716</v>
+        <v>1.430550515828855</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2221361379266398</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.269636730159192</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.292598519111124</v>
+        <v>1.28718344841019</v>
       </c>
       <c r="C11">
-        <v>0.256330603568955</v>
+        <v>0.2833855828313006</v>
       </c>
       <c r="D11">
-        <v>0.006020304325148551</v>
+        <v>0.01121419534508306</v>
       </c>
       <c r="E11">
-        <v>0.009252277221545313</v>
+        <v>0.01707972110136557</v>
       </c>
       <c r="F11">
-        <v>3.543142280003991</v>
+        <v>1.979961660872533</v>
       </c>
       <c r="G11">
-        <v>0.0008538168124119389</v>
+        <v>0.1107732872414395</v>
       </c>
       <c r="H11">
-        <v>0.05252966169070561</v>
+        <v>0.03840522406563096</v>
       </c>
       <c r="I11">
-        <v>0.04189050505994363</v>
+        <v>0.02210597203793707</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.264910256803674</v>
+        <v>1.138121299184739</v>
       </c>
       <c r="L11">
-        <v>0.05051716410332929</v>
+        <v>0.3879891392297097</v>
       </c>
       <c r="M11">
-        <v>1.482293862329954</v>
+        <v>0.4635139167330635</v>
       </c>
       <c r="N11">
-        <v>0.1290561305106124</v>
+        <v>0.0491551672390278</v>
       </c>
       <c r="O11">
-        <v>0.2470646444569766</v>
+        <v>1.513843910842212</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1738458613648746</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2636943880630405</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333503461028073</v>
+        <v>1.339155858464181</v>
       </c>
       <c r="C12">
-        <v>0.262728672318417</v>
+        <v>0.2726437343719397</v>
       </c>
       <c r="D12">
-        <v>0.004453017361891298</v>
+        <v>0.01542382056338099</v>
       </c>
       <c r="E12">
-        <v>0.008973126977522394</v>
+        <v>0.01574141405294283</v>
       </c>
       <c r="F12">
-        <v>3.101018103689356</v>
+        <v>1.654766518922841</v>
       </c>
       <c r="G12">
-        <v>0.0008536819698208248</v>
+        <v>0.1360145583692542</v>
       </c>
       <c r="H12">
-        <v>0.09195568824468836</v>
+        <v>0.07768677003018354</v>
       </c>
       <c r="I12">
-        <v>0.0418814388742792</v>
+        <v>0.02216632039383271</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.960984002361343</v>
+        <v>0.9415036167728132</v>
       </c>
       <c r="L12">
-        <v>0.04534114993384675</v>
+        <v>0.318526202812123</v>
       </c>
       <c r="M12">
-        <v>1.526329762654228</v>
+        <v>0.3864986123071787</v>
       </c>
       <c r="N12">
-        <v>0.09719489059118303</v>
+        <v>0.05161197475328017</v>
       </c>
       <c r="O12">
-        <v>0.2336982850672129</v>
+        <v>1.543563870448082</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1335810583454986</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2496209879545752</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.33480329126624</v>
+        <v>1.343442537042876</v>
       </c>
       <c r="C13">
-        <v>0.2607368782845185</v>
+        <v>0.2669331612776489</v>
       </c>
       <c r="D13">
-        <v>0.003500745310724085</v>
+        <v>0.01594725154661347</v>
       </c>
       <c r="E13">
-        <v>0.01000468040384872</v>
+        <v>0.01556424586954819</v>
       </c>
       <c r="F13">
-        <v>2.660981552441029</v>
+        <v>1.43712865474636</v>
       </c>
       <c r="G13">
-        <v>0.0008548579785693335</v>
+        <v>0.1318507143110459</v>
       </c>
       <c r="H13">
-        <v>0.1497263729178968</v>
+        <v>0.1344937955571055</v>
       </c>
       <c r="I13">
-        <v>0.04397931711423553</v>
+        <v>0.02305084112179578</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.668384639017134</v>
+        <v>0.8176648503092281</v>
       </c>
       <c r="L13">
-        <v>0.04671623004141168</v>
+        <v>0.2768551723442698</v>
       </c>
       <c r="M13">
-        <v>1.524599335697218</v>
+        <v>0.3355499471072676</v>
       </c>
       <c r="N13">
-        <v>0.06907179837730126</v>
+        <v>0.05969265737726559</v>
       </c>
       <c r="O13">
-        <v>0.2146328347800832</v>
+        <v>1.539004044666768</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09801275831143386</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2284577013035936</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.317647853936336</v>
+        <v>1.324729653497343</v>
       </c>
       <c r="C14">
-        <v>0.2558012389439455</v>
+        <v>0.2650460522395406</v>
       </c>
       <c r="D14">
-        <v>0.003154273622971715</v>
+        <v>0.01461435541983747</v>
       </c>
       <c r="E14">
-        <v>0.01153703533425787</v>
+        <v>0.0164910674144334</v>
       </c>
       <c r="F14">
-        <v>2.35698824298079</v>
+        <v>1.322312471442501</v>
       </c>
       <c r="G14">
-        <v>0.0008562729938369131</v>
+        <v>0.1168104581787937</v>
       </c>
       <c r="H14">
-        <v>0.2010562243061003</v>
+        <v>0.1847805688828714</v>
       </c>
       <c r="I14">
-        <v>0.0465637810197288</v>
+        <v>0.02420163476178327</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.471055603785544</v>
+        <v>0.7559430894810859</v>
       </c>
       <c r="L14">
-        <v>0.05168610516078331</v>
+        <v>0.2569238442675186</v>
       </c>
       <c r="M14">
-        <v>1.502918501462261</v>
+        <v>0.3090789483896685</v>
       </c>
       <c r="N14">
-        <v>0.05198312891914014</v>
+        <v>0.06835074298918187</v>
       </c>
       <c r="O14">
-        <v>0.1989006529352615</v>
+        <v>1.520247869114343</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07621740850770919</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.210690133184638</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.304756107180907</v>
+        <v>1.309904371262263</v>
       </c>
       <c r="C15">
-        <v>0.2531399020525384</v>
+        <v>0.2655052268438851</v>
       </c>
       <c r="D15">
-        <v>0.003127542433330355</v>
+        <v>0.01364873975301961</v>
       </c>
       <c r="E15">
-        <v>0.01194931478941985</v>
+        <v>0.01688207689243271</v>
       </c>
       <c r="F15">
-        <v>2.276024772888562</v>
+        <v>1.304953161522718</v>
       </c>
       <c r="G15">
-        <v>0.0008569259629309456</v>
+        <v>0.1090427319940801</v>
       </c>
       <c r="H15">
-        <v>0.2144762421130224</v>
+        <v>0.1977274580340662</v>
       </c>
       <c r="I15">
-        <v>0.04787556850450869</v>
+        <v>0.02487290812507403</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.419588731222305</v>
+        <v>0.7477886456531593</v>
       </c>
       <c r="L15">
-        <v>0.05326065190428864</v>
+        <v>0.2546728447639666</v>
       </c>
       <c r="M15">
-        <v>1.488108130065228</v>
+        <v>0.3050699583255998</v>
       </c>
       <c r="N15">
-        <v>0.04810880215163849</v>
+        <v>0.07058165796315663</v>
       </c>
       <c r="O15">
-        <v>0.1939427917934147</v>
+        <v>1.508177800040698</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07125805703289956</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2049787731451964</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.223443188001227</v>
+        <v>1.215680590944771</v>
       </c>
       <c r="C16">
-        <v>0.2367293833829081</v>
+        <v>0.2689600147628823</v>
       </c>
       <c r="D16">
-        <v>0.003346752198930325</v>
+        <v>0.008239170548836938</v>
       </c>
       <c r="E16">
-        <v>0.01105468686528344</v>
+        <v>0.01682528158930818</v>
       </c>
       <c r="F16">
-        <v>2.227607216400855</v>
+        <v>1.409717240654871</v>
       </c>
       <c r="G16">
-        <v>0.0008598554573405774</v>
+        <v>0.08359014358556038</v>
       </c>
       <c r="H16">
-        <v>0.2062317035023398</v>
+        <v>0.1873064630094348</v>
       </c>
       <c r="I16">
-        <v>0.05325020742685549</v>
+        <v>0.02734725949164307</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.397368578945901</v>
+        <v>0.8165820749514978</v>
       </c>
       <c r="L16">
-        <v>0.0504248336566846</v>
+        <v>0.2813725796157236</v>
       </c>
       <c r="M16">
-        <v>1.395216076307548</v>
+        <v>0.3289403459667319</v>
       </c>
       <c r="N16">
-        <v>0.04687027242398401</v>
+        <v>0.06662959299667648</v>
       </c>
       <c r="O16">
-        <v>0.1829366286147227</v>
+        <v>1.431627896583962</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07009063206667321</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1917767098032392</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.170353536644882</v>
+        <v>1.155608031400874</v>
       </c>
       <c r="C17">
-        <v>0.2268928688308449</v>
+        <v>0.2695939493561639</v>
       </c>
       <c r="D17">
-        <v>0.003653404865456733</v>
+        <v>0.005886605591758354</v>
       </c>
       <c r="E17">
-        <v>0.009408625612730148</v>
+        <v>0.01573291217624684</v>
       </c>
       <c r="F17">
-        <v>2.346954522240864</v>
+        <v>1.543848338896652</v>
       </c>
       <c r="G17">
-        <v>0.0008613636589573965</v>
+        <v>0.07925664909744956</v>
       </c>
       <c r="H17">
-        <v>0.1708953645139815</v>
+        <v>0.1508589115820627</v>
       </c>
       <c r="I17">
-        <v>0.05607564994244107</v>
+        <v>0.02871965737287496</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.481243750910693</v>
+        <v>0.8998342283713967</v>
       </c>
       <c r="L17">
-        <v>0.04485591414720957</v>
+        <v>0.3128109210829102</v>
       </c>
       <c r="M17">
-        <v>1.335759439112991</v>
+        <v>0.3593152951546443</v>
       </c>
       <c r="N17">
-        <v>0.05444248698703547</v>
+        <v>0.0589507602908057</v>
       </c>
       <c r="O17">
-        <v>0.1827635318524727</v>
+        <v>1.380069423990392</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0801082793730501</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1911592827162139</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.135795651854949</v>
+        <v>1.115722495237463</v>
       </c>
       <c r="C18">
-        <v>0.220769554522775</v>
+        <v>0.2716135241229551</v>
       </c>
       <c r="D18">
-        <v>0.004347705829055748</v>
+        <v>0.004403996373573804</v>
       </c>
       <c r="E18">
-        <v>0.007774762593592222</v>
+        <v>0.0145073097808277</v>
       </c>
       <c r="F18">
-        <v>2.650504300071503</v>
+        <v>1.760323855947675</v>
       </c>
       <c r="G18">
-        <v>0.0008617188743291163</v>
+        <v>0.07808306748881222</v>
       </c>
       <c r="H18">
-        <v>0.1184191576203517</v>
+        <v>0.09823306916064922</v>
       </c>
       <c r="I18">
-        <v>0.05630396556801465</v>
+        <v>0.02866217713047803</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.686600501325216</v>
+        <v>1.031505606405986</v>
       </c>
       <c r="L18">
-        <v>0.04017783980227208</v>
+        <v>0.3612041474150516</v>
       </c>
       <c r="M18">
-        <v>1.29745347438552</v>
+        <v>0.409097099769177</v>
       </c>
       <c r="N18">
-        <v>0.07273124813455212</v>
+        <v>0.0504124405012778</v>
       </c>
       <c r="O18">
-        <v>0.1918539716234626</v>
+        <v>1.347760200833932</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1037201817544826</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.201004181268523</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.117617301849123</v>
+        <v>1.093094588932161</v>
       </c>
       <c r="C19">
-        <v>0.2194346474948787</v>
+        <v>0.2777510269097263</v>
       </c>
       <c r="D19">
-        <v>0.00561004078911953</v>
+        <v>0.003577752787913724</v>
       </c>
       <c r="E19">
-        <v>0.007514267709093914</v>
+        <v>0.01462150220871739</v>
       </c>
       <c r="F19">
-        <v>3.085985150544062</v>
+        <v>2.038398616004429</v>
       </c>
       <c r="G19">
-        <v>0.000861078839540212</v>
+        <v>0.07646453180187951</v>
       </c>
       <c r="H19">
-        <v>0.07126251468040579</v>
+        <v>0.05183813341293586</v>
       </c>
       <c r="I19">
-        <v>0.05500318288613748</v>
+        <v>0.02813927505669778</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.980544317737426</v>
+        <v>1.199909571595441</v>
       </c>
       <c r="L19">
-        <v>0.04238382831948861</v>
+        <v>0.4222434828269357</v>
       </c>
       <c r="M19">
-        <v>1.279966538328665</v>
+        <v>0.4737910671557231</v>
       </c>
       <c r="N19">
-        <v>0.1026842866439424</v>
+        <v>0.04670520829499569</v>
       </c>
       <c r="O19">
-        <v>0.2082365936726269</v>
+        <v>1.33583491192536</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1416337991576953</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2189519775436857</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.148001098509724</v>
+        <v>1.12028544209042</v>
       </c>
       <c r="C20">
-        <v>0.2290604984363966</v>
+        <v>0.2937968059572427</v>
       </c>
       <c r="D20">
-        <v>0.008478980774803802</v>
+        <v>0.003637283306764161</v>
       </c>
       <c r="E20">
-        <v>0.01088855764694241</v>
+        <v>0.01875357026423607</v>
       </c>
       <c r="F20">
-        <v>3.915451708238521</v>
+        <v>2.489806447225106</v>
       </c>
       <c r="G20">
-        <v>0.000857618642615468</v>
+        <v>0.07270253770432511</v>
       </c>
       <c r="H20">
-        <v>0.03736880791198205</v>
+        <v>0.02106711962907681</v>
       </c>
       <c r="I20">
-        <v>0.04835234425497603</v>
+        <v>0.02501097704199484</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.540969143728191</v>
+        <v>1.470109716978371</v>
       </c>
       <c r="L20">
-        <v>0.06275829887626472</v>
+        <v>0.515647406701035</v>
       </c>
       <c r="M20">
-        <v>1.319730557096136</v>
+        <v>0.5825255180738225</v>
       </c>
       <c r="N20">
-        <v>0.1632183334042736</v>
+        <v>0.05460800840801738</v>
       </c>
       <c r="O20">
-        <v>0.2444107436621366</v>
+        <v>1.380903236903663</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2171863603865916</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2589529480710588</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.290395748577595</v>
+        <v>1.284775317329775</v>
       </c>
       <c r="C21">
-        <v>0.2597068921516268</v>
+        <v>0.2853083815802222</v>
       </c>
       <c r="D21">
-        <v>0.008874292693315411</v>
+        <v>0.01220121515681427</v>
       </c>
       <c r="E21">
-        <v>0.01280057220638486</v>
+        <v>0.02269536042776199</v>
       </c>
       <c r="F21">
-        <v>4.290649200680491</v>
+        <v>2.309319048960475</v>
       </c>
       <c r="G21">
-        <v>0.0008517686085909383</v>
+        <v>0.1297702312516833</v>
       </c>
       <c r="H21">
-        <v>0.0288792393573396</v>
+        <v>0.01679089019927471</v>
       </c>
       <c r="I21">
-        <v>0.03853955928895214</v>
+        <v>0.02093148529231481</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.775033095646961</v>
+        <v>1.333546400255273</v>
       </c>
       <c r="L21">
-        <v>0.07168294933756414</v>
+        <v>0.4552998024361301</v>
       </c>
       <c r="M21">
-        <v>1.485235874501655</v>
+        <v>0.5423892888676463</v>
       </c>
       <c r="N21">
-        <v>0.186500080626594</v>
+        <v>0.05647217421829964</v>
       </c>
       <c r="O21">
-        <v>0.2763202686961961</v>
+        <v>1.514633451243924</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2446623708084559</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2966675269394656</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.38528039640218</v>
+        <v>1.396251679659827</v>
       </c>
       <c r="C22">
-        <v>0.2793133820799767</v>
+        <v>0.2768489775316425</v>
       </c>
       <c r="D22">
-        <v>0.009120881907538347</v>
+        <v>0.02073005013705753</v>
       </c>
       <c r="E22">
-        <v>0.01384539242673721</v>
+        <v>0.02542973833666551</v>
       </c>
       <c r="F22">
-        <v>4.516924665520577</v>
+        <v>2.167673604949371</v>
       </c>
       <c r="G22">
-        <v>0.0008480660349534217</v>
+        <v>0.2151844417241691</v>
       </c>
       <c r="H22">
-        <v>0.02423681350370721</v>
+        <v>0.01446718371098743</v>
       </c>
       <c r="I22">
-        <v>0.03256655039009271</v>
+        <v>0.01813261856856485</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.915993163057394</v>
+        <v>1.232784231950518</v>
       </c>
       <c r="L22">
-        <v>0.076547973813895</v>
+        <v>0.4136607623507089</v>
       </c>
       <c r="M22">
-        <v>1.59423829440712</v>
+        <v>0.5101986099894589</v>
       </c>
       <c r="N22">
-        <v>0.1983058919926179</v>
+        <v>0.0570880934307052</v>
       </c>
       <c r="O22">
-        <v>0.2957795832590904</v>
+        <v>1.598751078969627</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2583915746757839</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3200462950434826</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.335253795698918</v>
+        <v>1.334202306049434</v>
       </c>
       <c r="C23">
-        <v>0.2679211117867055</v>
+        <v>0.2857236974634532</v>
       </c>
       <c r="D23">
-        <v>0.009156762408682795</v>
+        <v>0.01439974044971848</v>
       </c>
       <c r="E23">
-        <v>0.01328274716425959</v>
+        <v>0.0236554756283347</v>
       </c>
       <c r="F23">
-        <v>4.413819500951718</v>
+        <v>2.292877733872814</v>
       </c>
       <c r="G23">
-        <v>0.0008499991922855885</v>
+        <v>0.150797844092601</v>
       </c>
       <c r="H23">
-        <v>0.02660957040372125</v>
+        <v>0.01558778348072498</v>
       </c>
       <c r="I23">
-        <v>0.03524702226527943</v>
+        <v>0.01905673930705198</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.854398028408923</v>
+        <v>1.317853483329564</v>
       </c>
       <c r="L23">
-        <v>0.07425299623299964</v>
+        <v>0.4464583870724397</v>
       </c>
       <c r="M23">
-        <v>1.535324767995775</v>
+        <v>0.5401506496178357</v>
       </c>
       <c r="N23">
-        <v>0.1914840745448601</v>
+        <v>0.05719627392063309</v>
       </c>
       <c r="O23">
-        <v>0.2852243460860464</v>
+        <v>1.558049745996698</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2508161610856234</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3070227507115035</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.145818869378729</v>
+        <v>1.117369811220584</v>
       </c>
       <c r="C24">
-        <v>0.2272724434120477</v>
+        <v>0.2931057231020304</v>
       </c>
       <c r="D24">
-        <v>0.008988922794969767</v>
+        <v>0.003329463932061572</v>
       </c>
       <c r="E24">
-        <v>0.01122742151355549</v>
+        <v>0.01913091885889528</v>
       </c>
       <c r="F24">
-        <v>3.995913978330151</v>
+        <v>2.543238826704524</v>
       </c>
       <c r="G24">
-        <v>0.0008575155229178973</v>
+        <v>0.07227695732011252</v>
       </c>
       <c r="H24">
-        <v>0.03687390230177812</v>
+        <v>0.02070448525281154</v>
       </c>
       <c r="I24">
-        <v>0.04750638171730781</v>
+        <v>0.02420562131811099</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.599033388743806</v>
+        <v>1.505294934997679</v>
       </c>
       <c r="L24">
-        <v>0.06516871058158813</v>
+        <v>0.5284690569175083</v>
       </c>
       <c r="M24">
-        <v>1.315379728134786</v>
+        <v>0.5959778385932495</v>
       </c>
       <c r="N24">
-        <v>0.1667027748509398</v>
+        <v>0.05590810978906013</v>
       </c>
       <c r="O24">
-        <v>0.2457667922607314</v>
+        <v>1.377477522539948</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2217618839526097</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2604919908876546</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9434618375123023</v>
+        <v>0.9167743366855916</v>
       </c>
       <c r="C25">
-        <v>0.1853426961408502</v>
+        <v>0.2412134228614491</v>
       </c>
       <c r="D25">
-        <v>0.008747876686447498</v>
+        <v>0.002175082580846421</v>
       </c>
       <c r="E25">
-        <v>0.009135484303419261</v>
+        <v>0.01699514609681074</v>
       </c>
       <c r="F25">
-        <v>3.547940706937823</v>
+        <v>2.337103874515705</v>
       </c>
       <c r="G25">
-        <v>0.000865930659575076</v>
+        <v>0.08874908135815618</v>
       </c>
       <c r="H25">
-        <v>0.05031418496639706</v>
+        <v>0.02866806761418994</v>
       </c>
       <c r="I25">
-        <v>0.06354119472805131</v>
+        <v>0.03258412937184119</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.323906058200222</v>
+        <v>1.407855181497872</v>
       </c>
       <c r="L25">
-        <v>0.05554329476514397</v>
+        <v>0.5124840509755302</v>
       </c>
       <c r="M25">
-        <v>1.081956697229515</v>
+        <v>0.5387618384574324</v>
       </c>
       <c r="N25">
-        <v>0.1403496306177914</v>
+        <v>0.05082205041856369</v>
       </c>
       <c r="O25">
-        <v>0.2036625248862123</v>
+        <v>1.132000134685001</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1881798107867709</v>
       </c>
       <c r="Q25">
+        <v>0.2149011659501596</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
